--- a/prediction/PredictionData.xlsx
+++ b/prediction/PredictionData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\אלמנט חכם\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C6DA7-CB55-402A-9578-CC234DF404CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9C76F-EC96-4DE5-A3B0-74D6407FAD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
   <si>
     <t>B</t>
   </si>
@@ -69,6 +70,27 @@
   </si>
   <si>
     <t>&lt;-------&gt;</t>
+  </si>
+  <si>
+    <t>cofficients</t>
+  </si>
+  <si>
+    <t>intercept:</t>
+  </si>
+  <si>
+    <t>נק חיתוך</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
   </si>
 </sst>
 </file>
@@ -237,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +451,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -567,63 +595,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -692,22 +664,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1053,9 @@
     <col min="6" max="6" width="8.796875" style="1"/>
     <col min="7" max="7" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="1"/>
-    <col min="11" max="14" width="8.796875" style="1"/>
+    <col min="11" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1080,7 @@
       <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="8"/>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1127,25 +1101,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="10">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10">
         <v>21</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1166,25 +1140,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1205,25 +1179,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="10">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>22</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
         <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1244,25 +1218,25 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
         <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1283,25 +1257,25 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="10">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
         <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1322,25 +1296,25 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="10">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
         <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1361,25 +1335,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="10">
         <v>24</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1400,25 +1374,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="10">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>24</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1439,25 +1413,25 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
         <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1478,25 +1452,25 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="10">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
         <v>25</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10">
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1517,25 +1491,25 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="10">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="10">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10">
         <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1556,25 +1530,25 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="10">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>19</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1595,25 +1569,25 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="10">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1634,25 +1608,25 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="10">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1673,25 +1647,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="10">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="10">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1712,25 +1686,25 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="10">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="10">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
         <v>10</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1751,25 +1725,25 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>5</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
         <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1790,25 +1764,25 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="10">
         <v>24</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10">
         <v>19</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -1829,25 +1803,25 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
         <v>10</v>
       </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10">
         <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1868,25 +1842,25 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <v>25</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
         <v>8</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10">
         <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -1907,25 +1881,25 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
-      <c r="B22" s="2">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B22" s="10">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10">
         <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -1946,25 +1920,25 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="10">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
         <v>10</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10">
         <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -1985,25 +1959,25 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="10">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="10">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10">
         <v>25</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10">
         <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -2024,25 +1998,25 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="10">
         <v>30</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="10">
         <v>25</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="10">
         <v>23</v>
       </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
         <v>12</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
         <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -2063,25 +2037,25 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="10">
         <v>11</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="10">
         <v>30</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="10">
         <v>17</v>
       </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2102,25 +2076,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="10">
         <v>14</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="10">
         <v>11</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="10">
         <v>15</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
         <v>17</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2141,25 +2115,25 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="10">
         <v>17</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="10">
         <v>14</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="10">
         <v>25</v>
       </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
         <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -2198,7 +2172,7 @@
       <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="11">
         <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -2237,7 +2211,7 @@
       <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="11">
         <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -2276,7 +2250,7 @@
       <c r="F31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="11">
         <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2296,26 +2270,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>11</v>
       </c>
-      <c r="B32" s="8">
-        <v>18</v>
-      </c>
-      <c r="C32" s="8">
-        <v>18</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>7</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11">
         <v>23</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -2354,11 +2328,8 @@
       <c r="F33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="11">
         <v>24</v>
-      </c>
-      <c r="H33" s="2">
-        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>2</v>
@@ -2396,11 +2367,8 @@
       <c r="F34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="11">
         <v>21</v>
-      </c>
-      <c r="H34" s="2">
-        <v>30</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>3</v>
@@ -2438,11 +2406,8 @@
       <c r="F35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="2">
-        <v>18</v>
-      </c>
-      <c r="H35" s="2">
-        <v>4</v>
+      <c r="G35" s="11">
+        <v>18</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>3</v>
@@ -2480,11 +2445,8 @@
       <c r="F36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="11">
         <v>28</v>
-      </c>
-      <c r="H36" s="2">
-        <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>3</v>
@@ -2522,11 +2484,8 @@
       <c r="F37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="11">
         <v>30</v>
-      </c>
-      <c r="H37" s="2">
-        <v>18</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>0</v>
@@ -2564,11 +2523,8 @@
       <c r="F38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="11">
         <v>15</v>
-      </c>
-      <c r="H38" s="2">
-        <v>23</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>0</v>
@@ -2587,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>15</v>
       </c>
@@ -2606,11 +2562,8 @@
       <c r="F39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="11">
         <v>14</v>
-      </c>
-      <c r="H39" s="9">
-        <v>15</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>0</v>
@@ -2629,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>14</v>
       </c>
@@ -2648,12 +2601,8 @@
       <c r="F40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="11">
         <v>13</v>
-      </c>
-      <c r="H40" s="12">
-        <f>AVERAGE(H33:H39)</f>
-        <v>18</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>1</v>
@@ -2708,20 +2657,2672 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <f>L48</f>
+        <v>-4.6295402569521897</v>
+      </c>
+      <c r="B48" s="9">
+        <f>L49</f>
+        <v>-5.4095926951469302</v>
+      </c>
+      <c r="C48" s="9">
+        <f>L50</f>
+        <v>4.9645861787999301</v>
+      </c>
+      <c r="D48" s="9">
+        <f>L51</f>
+        <v>2.3455251917753399</v>
+      </c>
+      <c r="E48" s="9">
+        <f>L53</f>
+        <v>19.113779822292202</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-4.6295402569521897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f>(A29-$A$42)/($A$43-$A$42)</f>
+        <v>0.65</v>
+      </c>
+      <c r="B49" s="1">
+        <f>(B29-$B$42)/($B$43-$B$42)</f>
+        <v>0.35</v>
+      </c>
+      <c r="C49" s="1">
+        <f>(C29-$C$42)/($C$43-$C$42)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f>(D29-$D$42)/($D$43-$D$42)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="11">
+        <f>$A$48*A49+$B$48*B49+$C$48*C49+$D$48*D49+$E$48</f>
+        <v>15.149431288681988</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-5.4095926951469302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" ref="A50:A60" si="2">(A30-$A$42)/($A$43-$A$42)</f>
+        <v>0.25</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ref="B50:B60" si="3">(B30-$B$42)/($B$43-$B$42)</f>
+        <v>0.65</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C60" si="4">(C30-$C$42)/($C$43-$C$42)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D50" s="1">
+        <f>(D30-$D$42)/($D$43-$D$42)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="11">
+        <f>$A$48*A50+$B$48*B50+$C$48*C50+$D$48*D50+$E$48</f>
+        <v>17.833309092793826</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4.9645861787999301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ref="D50:D60" si="5">(D31-$D$42)/($D$43-$D$42)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G51" s="11">
+        <f>$A$48*A51+$B$48*B51+$C$48*C51+$D$48*D51+$E$48</f>
+        <v>18.61273436453963</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2.3455251917753399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G52" s="11">
+        <f>$A$48*A52+$B$48*B52+$C$48*C52+$D$48*D52+$E$48</f>
+        <v>19.173405241260859</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="11">
+        <f>$A$48*A53+$B$48*B53+$C$48*C53+$D$48*D53+$E$48</f>
+        <v>16.551433367810997</v>
+      </c>
+      <c r="L53" s="1">
+        <v>19.113779822292202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="G54" s="11">
+        <f>$A$48*A54+$B$48*B54+$C$48*C54+$D$48*D54+$E$48</f>
+        <v>15.280910938810273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="G55" s="11">
+        <f>$A$48*A55+$B$48*B55+$C$48*C55+$D$48*D55+$E$48</f>
+        <v>17.911572543530799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <f>$A$48*A56+$B$48*B56+$C$48*C56+$D$48*D56+$E$48</f>
+        <v>19.251273915980445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="11">
+        <f>$A$48*A57+$B$48*B57+$C$48*C57+$D$48*D57+$E$48</f>
+        <v>13.969795898626591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="11">
+        <f>$A$48*A58+$B$48*B58+$C$48*C58+$D$48*D58+$E$48</f>
+        <v>12.484943528888033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <f>$A$48*A59+$B$48*B59+$C$48*C59+$D$48*D59+$E$48</f>
+        <v>14.2844072254872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="G60" s="11">
+        <f>$A$48*A60+$B$48*B60+$C$48*C60+$D$48*D60+$E$48</f>
+        <v>21.469769728400188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A62B8F-0782-4E17-8B0E-2C3018C376BC}">
+  <dimension ref="A1:F126"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10">
+        <v>23</v>
+      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>14</v>
+      </c>
+      <c r="B27" s="10">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10">
+        <v>15</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="12">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="12">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>20</v>
+      </c>
+      <c r="B41" s="10">
+        <v>18</v>
+      </c>
+      <c r="C41" s="10">
+        <v>21</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>22</v>
+      </c>
+      <c r="B42" s="10">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10">
+        <v>23</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>13</v>
+      </c>
+      <c r="B43" s="10">
+        <v>22</v>
+      </c>
+      <c r="C43" s="10">
+        <v>17</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>11</v>
+      </c>
+      <c r="B44" s="10">
+        <v>13</v>
+      </c>
+      <c r="C44" s="10">
+        <v>21</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>18</v>
+      </c>
+      <c r="B45" s="10">
+        <v>11</v>
+      </c>
+      <c r="C45" s="10">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>17</v>
+      </c>
+      <c r="B46" s="10">
+        <v>18</v>
+      </c>
+      <c r="C46" s="10">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>24</v>
+      </c>
+      <c r="B47" s="10">
+        <v>17</v>
+      </c>
+      <c r="C47" s="10">
+        <v>12</v>
+      </c>
+      <c r="D47" s="10">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>10</v>
+      </c>
+      <c r="B48" s="10">
+        <v>24</v>
+      </c>
+      <c r="C48" s="10">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10">
+        <v>21</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10">
+        <v>25</v>
+      </c>
+      <c r="C50" s="10">
+        <v>28</v>
+      </c>
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>19</v>
+      </c>
+      <c r="B51" s="10">
+        <v>18</v>
+      </c>
+      <c r="C51" s="10">
+        <v>25</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
+      <c r="E51" s="10">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>25</v>
+      </c>
+      <c r="B52" s="10">
+        <v>19</v>
+      </c>
+      <c r="C52" s="10">
+        <v>22</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10">
+        <v>22</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>17</v>
+      </c>
+      <c r="B54" s="10">
+        <v>23</v>
+      </c>
+      <c r="C54" s="10">
+        <v>13</v>
+      </c>
+      <c r="D54" s="10">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>15</v>
+      </c>
+      <c r="B55" s="10">
+        <v>17</v>
+      </c>
+      <c r="C55" s="10">
+        <v>11</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>25</v>
+      </c>
+      <c r="B56" s="10">
+        <v>15</v>
+      </c>
+      <c r="C56" s="10">
+        <v>18</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>10</v>
+      </c>
+      <c r="B57" s="10">
+        <v>25</v>
+      </c>
+      <c r="C57" s="10">
+        <v>17</v>
+      </c>
+      <c r="D57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>18</v>
+      </c>
+      <c r="B58" s="10">
+        <v>10</v>
+      </c>
+      <c r="C58" s="10">
+        <v>24</v>
+      </c>
+      <c r="D58" s="10">
+        <v>2</v>
+      </c>
+      <c r="E58" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>19</v>
+      </c>
+      <c r="B59" s="10">
+        <v>18</v>
+      </c>
+      <c r="C59" s="10">
+        <v>10</v>
+      </c>
+      <c r="D59" s="10">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>18</v>
+      </c>
+      <c r="B60" s="10">
+        <v>19</v>
+      </c>
+      <c r="C60" s="10">
+        <v>25</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>11</v>
+      </c>
+      <c r="B61" s="10">
+        <v>18</v>
+      </c>
+      <c r="C61" s="10">
+        <v>18</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>18</v>
+      </c>
+      <c r="B62" s="10">
+        <v>11</v>
+      </c>
+      <c r="C62" s="10">
+        <v>19</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>25</v>
+      </c>
+      <c r="B63" s="10">
+        <v>18</v>
+      </c>
+      <c r="C63" s="10">
+        <v>25</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>30</v>
+      </c>
+      <c r="B64" s="10">
+        <v>25</v>
+      </c>
+      <c r="C64" s="10">
+        <v>23</v>
+      </c>
+      <c r="D64" s="10">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>11</v>
+      </c>
+      <c r="B65" s="10">
+        <v>30</v>
+      </c>
+      <c r="C65" s="10">
+        <v>17</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2</v>
+      </c>
+      <c r="E65" s="10">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>14</v>
+      </c>
+      <c r="B66" s="10">
+        <v>11</v>
+      </c>
+      <c r="C66" s="10">
+        <v>15</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>17</v>
+      </c>
+      <c r="B67" s="10">
+        <v>14</v>
+      </c>
+      <c r="C67" s="10">
+        <v>25</v>
+      </c>
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="12">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="12">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>23</v>
+      </c>
+      <c r="B72" s="7">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="12">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="12">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21</v>
+      </c>
+      <c r="C75" s="2">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="12">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>30</v>
+      </c>
+      <c r="B77" s="2">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="12">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" s="2">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f t="shared" ref="A81:C81" si="0">MIN(A2:A40)</f>
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <f>MIN(D2:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f t="shared" ref="A82:C82" si="1">MAX(A2:A40)</f>
+        <v>30</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D82" s="1">
+        <f>MAX(D2:D40)</f>
+        <v>5</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>2</v>
+      </c>
+      <c r="B87" s="9">
+        <v>1</v>
+      </c>
+      <c r="C87" s="9">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9">
+        <v>3</v>
+      </c>
+      <c r="E87" s="9">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f>(A2-$A$81)/($A$82-$A$81)</f>
+        <v>0.5</v>
+      </c>
+      <c r="B88" s="1">
+        <f>(B2-$B$81)/($B$82-$B$81)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C88" s="1">
+        <f>(C2-$C$81)/($C$82-$C$81)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D88" s="1">
+        <f>(D2-$D$81)/($D$82-$D$81)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="11">
+        <f>$A$87*A88+$B$87*B88+$C$87*C88+$D$87*D88+$E$87</f>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" ref="A89:A126" si="2">(A3-$A$81)/($A$82-$A$81)</f>
+        <v>0.6</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ref="B89:B126" si="3">(B3-$B$81)/($B$82-$B$81)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ref="C89:C126" si="4">(C3-$C$81)/($C$82-$C$81)</f>
+        <v>0.65</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" ref="D89:D126" si="5">(D3-$D$81)/($D$82-$D$81)</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="11">
+        <f t="shared" ref="F89:F126" si="6">$A$87*A89+$B$87*B89+$C$87*C89+$D$87*D89+$E$87</f>
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="11">
+        <f t="shared" si="6"/>
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="11">
+        <f t="shared" si="6"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="11">
+        <f t="shared" si="6"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="11">
+        <f t="shared" si="6"/>
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="11">
+        <f t="shared" si="6"/>
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="11">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="11">
+        <f t="shared" si="6"/>
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="11">
+        <f t="shared" si="6"/>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="11">
+        <f t="shared" si="6"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="11">
+        <f t="shared" si="6"/>
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="6"/>
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="6"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="6"/>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="6"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="6"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="6"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="6"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="6"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="6"/>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="6"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="6"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="6"/>
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="6"/>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="6"/>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="6"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="6"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="6"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="6"/>
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="6"/>
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="6"/>
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="6"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="6"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="6"/>
+        <v>12.7</v>
       </c>
     </row>
   </sheetData>

--- a/prediction/PredictionData.xlsx
+++ b/prediction/PredictionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9C76F-EC96-4DE5-A3B0-74D6407FAD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36727217-239A-42D0-95C7-4AC2BB618425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A62B8F-0782-4E17-8B0E-2C3018C376BC}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView rightToLeft="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/prediction/PredictionData.xlsx
+++ b/prediction/PredictionData.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36727217-239A-42D0-95C7-4AC2BB618425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81EF069-B561-43E9-BB4E-EABF504DAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="גיליון1" sheetId="2" r:id="rId2"/>
+    <sheet name="Data2" sheetId="3" r:id="rId3"/>
+    <sheet name="גיליון3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="30">
   <si>
     <t>B</t>
   </si>
@@ -92,12 +94,48 @@
   <si>
     <t>X4</t>
   </si>
+  <si>
+    <t>סטייה</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>coefficients</t>
+  </si>
+  <si>
+    <t>חיזוי המודל ללא ערבוב</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -646,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,15 +724,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B25"/>
+    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1101,25 +1153,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>20</v>
       </c>
-      <c r="B2" s="10">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
         <v>21</v>
       </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1140,25 +1192,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1179,25 +1231,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>22</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="2">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1218,25 +1270,25 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1257,25 +1309,25 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1296,25 +1348,25 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
         <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1335,25 +1387,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1374,25 +1426,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>24</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1413,25 +1465,25 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>25</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>21</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
         <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1452,25 +1504,25 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="10">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1491,25 +1543,25 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
         <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1530,25 +1582,25 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="2">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1569,25 +1621,25 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="2">
         <v>22</v>
       </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1608,25 +1660,25 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>23</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1647,25 +1699,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>17</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1686,25 +1738,25 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="2">
         <v>25</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="10">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>10</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1725,25 +1777,25 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="2">
         <v>25</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1764,25 +1816,25 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
         <v>19</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -1803,25 +1855,25 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
         <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1842,25 +1894,25 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>25</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
         <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -1881,25 +1933,25 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="10">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>9</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
         <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -1920,25 +1972,25 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
         <v>11</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>10</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
         <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -1959,25 +2011,25 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="2">
         <v>25</v>
       </c>
-      <c r="B24" s="10">
-        <v>18</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
         <v>25</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>11</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
         <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -1998,25 +2050,25 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="2">
         <v>30</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="2">
         <v>25</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
-      <c r="D25" s="10">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>12</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
         <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -2037,25 +2089,25 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="2">
         <v>11</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2">
         <v>30</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2076,25 +2128,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="2">
         <v>14</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
         <v>17</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2115,25 +2167,25 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="2">
         <v>14</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>25</v>
       </c>
-      <c r="D28" s="10">
-        <v>3</v>
-      </c>
-      <c r="E28" s="10">
-        <v>3</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
         <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -2172,7 +2224,7 @@
       <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -2211,7 +2263,7 @@
       <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -2250,7 +2302,7 @@
       <c r="F31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2289,7 +2341,7 @@
       <c r="F32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>23</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -2328,7 +2380,7 @@
       <c r="F33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>24</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -2367,7 +2419,7 @@
       <c r="F34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>21</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -2406,7 +2458,7 @@
       <c r="F35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>18</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -2445,7 +2497,7 @@
       <c r="F36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>28</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -2484,7 +2536,7 @@
       <c r="F37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>30</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -2523,7 +2575,7 @@
       <c r="F38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>15</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -2562,7 +2614,7 @@
       <c r="F39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>14</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -2601,7 +2653,7 @@
       <c r="F40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -2698,6 +2750,9 @@
         <f>L53</f>
         <v>19.113779822292202</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L48" s="1">
         <v>-4.6295402569521897</v>
       </c>
@@ -2719,9 +2774,13 @@
         <f>(D29-$D$42)/($D$43-$D$42)</f>
         <v>0.4</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f>$A$48*A49+$B$48*B49+$C$48*C49+$D$48*D49+$E$48</f>
         <v>15.149431288681988</v>
+      </c>
+      <c r="H49" s="1">
+        <f>G29-G49</f>
+        <v>-0.14943128868198841</v>
       </c>
       <c r="L49" s="1">
         <v>-5.4095926951469302</v>
@@ -2744,9 +2803,13 @@
         <f>(D30-$D$42)/($D$43-$D$42)</f>
         <v>0.6</v>
       </c>
-      <c r="G50" s="11">
-        <f>$A$48*A50+$B$48*B50+$C$48*C50+$D$48*D50+$E$48</f>
+      <c r="G50" s="10">
+        <f t="shared" ref="G49:G60" si="5">$A$48*A50+$B$48*B50+$C$48*C50+$D$48*D50+$E$48</f>
         <v>17.833309092793826</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" ref="H50:H60" si="6">G30-G50</f>
+        <v>0.16669090720617419</v>
       </c>
       <c r="L50" s="1">
         <v>4.9645861787999301</v>
@@ -2766,12 +2829,16 @@
         <v>0.45</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D50:D60" si="5">(D31-$D$42)/($D$43-$D$42)</f>
+        <f t="shared" ref="D51:D60" si="7">(D31-$D$42)/($D$43-$D$42)</f>
         <v>0.2</v>
       </c>
-      <c r="G51" s="11">
-        <f>$A$48*A51+$B$48*B51+$C$48*C51+$D$48*D51+$E$48</f>
+      <c r="G51" s="10">
+        <f t="shared" si="5"/>
         <v>18.61273436453963</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.6127343645396301</v>
       </c>
       <c r="L51" s="1">
         <v>2.3455251917753399</v>
@@ -2791,12 +2858,16 @@
         <v>0.4</v>
       </c>
       <c r="D52" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="G52" s="10">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="G52" s="11">
-        <f>$A$48*A52+$B$48*B52+$C$48*C52+$D$48*D52+$E$48</f>
         <v>19.173405241260859</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8265947587391409</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>13</v>
@@ -2816,12 +2887,16 @@
         <v>0.05</v>
       </c>
       <c r="D53" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="G53" s="11">
-        <f>$A$48*A53+$B$48*B53+$C$48*C53+$D$48*D53+$E$48</f>
         <v>16.551433367810997</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="6"/>
+        <v>7.4485666321890029</v>
       </c>
       <c r="L53" s="1">
         <v>19.113779822292202</v>
@@ -2841,12 +2916,16 @@
         <v>0.4</v>
       </c>
       <c r="D54" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="G54" s="10">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="G54" s="11">
-        <f>$A$48*A54+$B$48*B54+$C$48*C54+$D$48*D54+$E$48</f>
         <v>15.280910938810273</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7190890611897274</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2863,12 +2942,16 @@
         <v>0.75</v>
       </c>
       <c r="D55" s="1">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G55" s="10">
         <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="G55" s="11">
-        <f>$A$48*A55+$B$48*B55+$C$48*C55+$D$48*D55+$E$48</f>
         <v>17.911572543530799</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>8.842745646920136E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2885,12 +2968,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <f>$A$48*A56+$B$48*B56+$C$48*C56+$D$48*D56+$E$48</f>
         <v>19.251273915980445</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="6"/>
+        <v>8.7487260840195553</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2907,12 +2994,16 @@
         <v>0.05</v>
       </c>
       <c r="D57" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="10">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="G57" s="11">
-        <f>$A$48*A57+$B$48*B57+$C$48*C57+$D$48*D57+$E$48</f>
         <v>13.969795898626591</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="6"/>
+        <v>16.030204101373407</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2929,12 +3020,16 @@
         <v>0.2</v>
       </c>
       <c r="D58" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="G58" s="11">
-        <f>$A$48*A58+$B$48*B58+$C$48*C58+$D$48*D58+$E$48</f>
         <v>12.484943528888033</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5150564711119667</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2951,12 +3046,16 @@
         <v>0.35</v>
       </c>
       <c r="D59" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <f>$A$48*A59+$B$48*B59+$C$48*C59+$D$48*D59+$E$48</f>
         <v>14.2844072254872</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.28440722548720032</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,12 +3072,16 @@
         <v>0.65</v>
       </c>
       <c r="D60" s="1">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G60" s="10">
         <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="G60" s="11">
-        <f>$A$48*A60+$B$48*B60+$C$48*C60+$D$48*D60+$E$48</f>
         <v>21.469769728400188</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.4697697284001876</v>
       </c>
     </row>
   </sheetData>
@@ -2991,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A62B8F-0782-4E17-8B0E-2C3018C376BC}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3022,461 +3125,461 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>20</v>
       </c>
-      <c r="B2" s="10">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
         <v>21</v>
       </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>12.95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2">
         <v>14.95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>22</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="2">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>9.65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>11.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>11.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>10.65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="2">
         <v>11.65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>24</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>25</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>21</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
         <v>12.45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="10">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>14.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="2">
         <v>14.45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="2">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>12.55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="2">
         <v>22</v>
       </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>13.85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>23</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="2">
         <v>12.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>17</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="2">
         <v>25</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="10">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>10.75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="2">
         <v>25</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="2">
         <v>11.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>12.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>9.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>25</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="10">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>10.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
         <v>11</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>11.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="2">
         <v>25</v>
       </c>
-      <c r="B24" s="10">
-        <v>18</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
         <v>25</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>13.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="2">
         <v>30</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="2">
         <v>25</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
-      <c r="D25" s="10">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>14.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="2">
         <v>11</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2">
         <v>30</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
         <v>11.05</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="2">
         <v>14</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="2">
         <v>14</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>25</v>
       </c>
-      <c r="D28" s="10">
-        <v>3</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
         <v>13.45</v>
       </c>
     </row>
@@ -3493,7 +3596,7 @@
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="2">
         <v>9.85</v>
       </c>
     </row>
@@ -3510,7 +3613,7 @@
       <c r="D30" s="2">
         <v>3</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="2">
         <v>11.95</v>
       </c>
     </row>
@@ -3527,7 +3630,7 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="2">
         <v>10.9</v>
       </c>
     </row>
@@ -3544,7 +3647,7 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="2">
         <v>10.1</v>
       </c>
     </row>
@@ -3561,7 +3664,7 @@
       <c r="D33" s="7">
         <v>1</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3578,7 +3681,7 @@
       <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="2">
         <v>12.25</v>
       </c>
     </row>
@@ -3595,7 +3698,7 @@
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="2">
         <v>14.35</v>
       </c>
     </row>
@@ -3612,7 +3715,7 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="2">
         <v>13.35</v>
       </c>
     </row>
@@ -3629,7 +3732,7 @@
       <c r="D37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="2">
         <v>10.65</v>
       </c>
     </row>
@@ -3646,7 +3749,7 @@
       <c r="D38" s="2">
         <v>4</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="2">
         <v>13.3</v>
       </c>
     </row>
@@ -3663,7 +3766,7 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="2">
         <v>10.25</v>
       </c>
     </row>
@@ -3680,466 +3783,466 @@
       <c r="D40" s="2">
         <v>3</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="2">
         <v>12.7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="2">
         <v>20</v>
       </c>
-      <c r="B41" s="10">
-        <v>18</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="2">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
         <v>21</v>
       </c>
-      <c r="D41" s="10">
-        <v>3</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
         <v>12.95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="2">
         <v>22</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="2">
         <v>20</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="2">
         <v>23</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="2">
         <v>5</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="2">
         <v>14.95</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="2">
         <v>13</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="2">
         <v>22</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="2">
         <v>17</v>
       </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
         <v>9.65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="2">
         <v>11</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="2">
         <v>13</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="2">
         <v>21</v>
       </c>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
         <v>11.2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>18</v>
-      </c>
-      <c r="B45" s="10">
+      <c r="A45" s="2">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
         <v>11</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="2">
         <v>19</v>
       </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
         <v>11.3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="2">
         <v>17</v>
       </c>
-      <c r="B46" s="10">
-        <v>18</v>
-      </c>
-      <c r="C46" s="10">
+      <c r="B46" s="2">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2">
         <v>13</v>
       </c>
-      <c r="D46" s="10">
-        <v>3</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
         <v>10.65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="2">
         <v>24</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="2">
         <v>17</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="2">
         <v>12</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="2">
         <v>11.65</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="2">
         <v>10</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="2">
         <v>24</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="2">
         <v>20</v>
       </c>
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="2">
         <v>25</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="2">
         <v>10</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="2">
         <v>21</v>
       </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
         <v>12.45</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>18</v>
-      </c>
-      <c r="B50" s="10">
+      <c r="A50" s="2">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2">
         <v>25</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="2">
         <v>28</v>
       </c>
-      <c r="D50" s="10">
-        <v>3</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
         <v>14.85</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="2">
         <v>19</v>
       </c>
-      <c r="B51" s="10">
-        <v>18</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
         <v>25</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="2">
         <v>4</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="2">
         <v>14.45</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="2">
         <v>25</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="2">
         <v>19</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="2">
         <v>22</v>
       </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
         <v>12.55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="2">
         <v>23</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="2">
         <v>25</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="2">
         <v>22</v>
       </c>
-      <c r="D53" s="10">
-        <v>3</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
         <v>13.85</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="2">
         <v>17</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="2">
         <v>23</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="2">
         <v>13</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="2">
         <v>5</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="2">
         <v>12.1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="2">
         <v>15</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="2">
         <v>17</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="2">
         <v>11</v>
       </c>
-      <c r="D55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="2">
         <v>25</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="2">
         <v>15</v>
       </c>
-      <c r="C56" s="10">
-        <v>18</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="C56" s="2">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
         <v>10.75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="2">
         <v>10</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="2">
         <v>25</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="2">
         <v>17</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="2">
         <v>4</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="2">
         <v>11.9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>18</v>
-      </c>
-      <c r="B58" s="10">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
         <v>10</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="2">
         <v>24</v>
       </c>
-      <c r="D58" s="10">
-        <v>2</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
         <v>12.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="2">
         <v>19</v>
       </c>
-      <c r="B59" s="10">
-        <v>18</v>
-      </c>
-      <c r="C59" s="10">
+      <c r="B59" s="2">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
         <v>10</v>
       </c>
-      <c r="D59" s="10">
-        <v>2</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
         <v>9.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>18</v>
-      </c>
-      <c r="B60" s="10">
+      <c r="A60" s="2">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
         <v>19</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="2">
         <v>25</v>
       </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="2">
         <v>11</v>
       </c>
-      <c r="B61" s="10">
-        <v>18</v>
-      </c>
-      <c r="C61" s="10">
-        <v>18</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="B61" s="2">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
         <v>10.1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>18</v>
-      </c>
-      <c r="B62" s="10">
+      <c r="A62" s="2">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2">
         <v>11</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="2">
         <v>19</v>
       </c>
-      <c r="D62" s="10">
-        <v>2</v>
-      </c>
-      <c r="E62" s="10">
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
         <v>11.3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="2">
         <v>25</v>
       </c>
-      <c r="B63" s="10">
-        <v>18</v>
-      </c>
-      <c r="C63" s="10">
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
         <v>25</v>
       </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
         <v>13.25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="2">
         <v>30</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="2">
         <v>25</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="2">
         <v>23</v>
       </c>
-      <c r="D64" s="10">
-        <v>3</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
         <v>14.8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="2">
         <v>11</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="2">
         <v>30</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="2">
         <v>17</v>
       </c>
-      <c r="D65" s="10">
-        <v>2</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
         <v>11.05</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="2">
         <v>14</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="2">
         <v>11</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="2">
         <v>15</v>
       </c>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="2">
         <v>17</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="2">
         <v>14</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="2">
         <v>25</v>
       </c>
-      <c r="D67" s="10">
-        <v>3</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
         <v>13.45</v>
       </c>
     </row>
@@ -4156,7 +4259,7 @@
       <c r="D68" s="2">
         <v>2</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="2">
         <v>9.85</v>
       </c>
     </row>
@@ -4173,7 +4276,7 @@
       <c r="D69" s="2">
         <v>3</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="2">
         <v>11.95</v>
       </c>
     </row>
@@ -4190,7 +4293,7 @@
       <c r="D70" s="2">
         <v>1</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="2">
         <v>10.9</v>
       </c>
     </row>
@@ -4207,7 +4310,7 @@
       <c r="D71" s="2">
         <v>1</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="2">
         <v>10.1</v>
       </c>
     </row>
@@ -4224,7 +4327,7 @@
       <c r="D72" s="7">
         <v>1</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -4241,7 +4344,7 @@
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="2">
         <v>12.25</v>
       </c>
     </row>
@@ -4258,7 +4361,7 @@
       <c r="D74" s="2">
         <v>3</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="2">
         <v>14.35</v>
       </c>
     </row>
@@ -4275,7 +4378,7 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="2">
         <v>13.35</v>
       </c>
     </row>
@@ -4292,7 +4395,7 @@
       <c r="D76" s="2">
         <v>2</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="2">
         <v>10.65</v>
       </c>
     </row>
@@ -4309,7 +4412,7 @@
       <c r="D77" s="2">
         <v>4</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="2">
         <v>13.3</v>
       </c>
     </row>
@@ -4326,7 +4429,7 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="2">
         <v>10.25</v>
       </c>
     </row>
@@ -4343,7 +4446,7 @@
       <c r="D79" s="2">
         <v>3</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="2">
         <v>12.7</v>
       </c>
     </row>
@@ -4473,7 +4576,7 @@
         <v>0.6</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <f>$A$87*A88+$B$87*B88+$C$87*C88+$D$87*D88+$E$87</f>
         <v>12.95</v>
       </c>
@@ -4496,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <f t="shared" ref="F89:F126" si="6">$A$87*A89+$B$87*B89+$C$87*C89+$D$87*D89+$E$87</f>
         <v>14.95</v>
       </c>
@@ -4519,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <f t="shared" si="6"/>
         <v>9.65</v>
       </c>
@@ -4542,7 +4645,7 @@
         <v>0.4</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <f t="shared" si="6"/>
         <v>11.2</v>
       </c>
@@ -4565,7 +4668,7 @@
         <v>0.4</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <f t="shared" si="6"/>
         <v>11.3</v>
       </c>
@@ -4588,7 +4691,7 @@
         <v>0.6</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <f t="shared" si="6"/>
         <v>10.65</v>
       </c>
@@ -4611,7 +4714,7 @@
         <v>0.8</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <f t="shared" si="6"/>
         <v>11.65</v>
       </c>
@@ -4634,7 +4737,7 @@
         <v>0.6</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -4657,7 +4760,7 @@
         <v>0.4</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <f t="shared" si="6"/>
         <v>12.45</v>
       </c>
@@ -4680,7 +4783,7 @@
         <v>0.6</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <f t="shared" si="6"/>
         <v>14.85</v>
       </c>
@@ -4703,7 +4806,7 @@
         <v>0.8</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <f t="shared" si="6"/>
         <v>14.45</v>
       </c>
@@ -4726,7 +4829,7 @@
         <v>0.2</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <f t="shared" si="6"/>
         <v>12.55</v>
       </c>
@@ -4748,7 +4851,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <f t="shared" si="6"/>
         <v>13.85</v>
       </c>
@@ -4770,7 +4873,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="10">
         <f t="shared" si="6"/>
         <v>12.1</v>
       </c>
@@ -4792,7 +4895,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
@@ -4814,7 +4917,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="10">
         <f t="shared" si="6"/>
         <v>10.75</v>
       </c>
@@ -4836,7 +4939,7 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="10">
         <f t="shared" si="6"/>
         <v>11.9</v>
       </c>
@@ -4858,7 +4961,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
@@ -4880,7 +4983,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
@@ -4902,7 +5005,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -4924,7 +5027,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <f t="shared" si="6"/>
         <v>10.1</v>
       </c>
@@ -4946,7 +5049,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <f t="shared" si="6"/>
         <v>11.3</v>
       </c>
@@ -4968,7 +5071,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <f t="shared" si="6"/>
         <v>13.25</v>
       </c>
@@ -4990,7 +5093,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <f t="shared" si="6"/>
         <v>14.8</v>
       </c>
@@ -5012,7 +5115,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <f t="shared" si="6"/>
         <v>11.05</v>
       </c>
@@ -5034,7 +5137,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <f t="shared" si="6"/>
         <v>9.3000000000000007</v>
       </c>
@@ -5056,7 +5159,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <f t="shared" si="6"/>
         <v>13.45</v>
       </c>
@@ -5078,7 +5181,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <f t="shared" si="6"/>
         <v>9.85</v>
       </c>
@@ -5100,7 +5203,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <f t="shared" si="6"/>
         <v>11.95</v>
       </c>
@@ -5122,7 +5225,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
@@ -5144,7 +5247,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <f t="shared" si="6"/>
         <v>10.1</v>
       </c>
@@ -5166,7 +5269,7 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <f t="shared" si="6"/>
         <v>9.1999999999999993</v>
       </c>
@@ -5188,7 +5291,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <f t="shared" si="6"/>
         <v>12.25</v>
       </c>
@@ -5210,7 +5313,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <f t="shared" si="6"/>
         <v>14.35</v>
       </c>
@@ -5232,7 +5335,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <f t="shared" si="6"/>
         <v>13.35</v>
       </c>
@@ -5254,7 +5357,7 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <f t="shared" si="6"/>
         <v>10.65</v>
       </c>
@@ -5276,7 +5379,7 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <f t="shared" si="6"/>
         <v>13.3</v>
       </c>
@@ -5298,7 +5401,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <f t="shared" si="6"/>
         <v>10.25</v>
       </c>
@@ -5320,7 +5423,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="10">
         <f t="shared" si="6"/>
         <v>12.7</v>
       </c>
@@ -5328,4 +5431,6194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF43053F-1936-475A-A14C-9B78B604A3E8}">
+  <dimension ref="A1:L126"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I10" sqref="E10:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>13.55</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15.55</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10.35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12.95</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15.35</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14.45</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11.65</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>14.15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10.55</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12.649999999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>14.85</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>13.85</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>13.399999999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>13.55</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>15.55</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10.35</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>25</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12.95</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15.35</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>14.45</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>25</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>30</v>
+      </c>
+      <c r="B64" s="2">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2">
+        <v>30</v>
+      </c>
+      <c r="C65" s="2">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11.65</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>14.15</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>10.55</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>12.649999999999999</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>23</v>
+      </c>
+      <c r="B72" s="7">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
+        <v>14.85</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21</v>
+      </c>
+      <c r="C75" s="2">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
+        <v>13.85</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>30</v>
+      </c>
+      <c r="B77" s="2">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" s="2">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>13.399999999999999</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f t="shared" ref="A81:C81" si="0">MIN(A2:A40)</f>
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <f>MIN(D2:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f t="shared" ref="A82:C82" si="1">MAX(A2:A40)</f>
+        <v>30</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D82" s="1">
+        <f>MAX(D2:D40)</f>
+        <v>5</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>2</v>
+      </c>
+      <c r="B87" s="9">
+        <v>1</v>
+      </c>
+      <c r="C87" s="9">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9">
+        <v>3</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I87" s="9">
+        <v>7</v>
+      </c>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f>(A2-$A$81)/($A$82-$A$81)</f>
+        <v>0.5</v>
+      </c>
+      <c r="B88" s="1">
+        <f>(B2-$B$81)/($B$82-$B$81)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C88" s="1">
+        <f>(C2-$C$81)/($C$82-$C$81)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D88" s="1">
+        <f>(D2-$D$81)/($D$82-$D$81)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="10">
+        <f>$A$87*A88+$B$87*B88+$C$87*C88+$D$87*D88+$E$87*E88+$F$87*F88+$G$87*G88+$H$87*H88+$I$87</f>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" ref="A89:A126" si="2">(A3-$A$81)/($A$82-$A$81)</f>
+        <v>0.6</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ref="B89:B126" si="3">(B3-$B$81)/($B$82-$B$81)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ref="C89:C126" si="4">(C3-$C$81)/($C$82-$C$81)</f>
+        <v>0.65</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" ref="D89:D126" si="5">(D3-$D$81)/($D$82-$D$81)</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="10">
+        <f t="shared" ref="J89:J126" si="6">$A$87*A89+$B$87*B89+$C$87*C89+$D$87*D89+$E$87*E89+$F$87*F89+$G$87*G89+$H$87*H89+$I$87</f>
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="10">
+        <f t="shared" si="6"/>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>1</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="10">
+        <f t="shared" si="6"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>1</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="10">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="10">
+        <f t="shared" si="6"/>
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="10">
+        <f t="shared" si="6"/>
+        <v>11.850000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="10">
+        <f t="shared" si="6"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="10">
+        <f t="shared" si="6"/>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E97" s="11">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="10">
+        <f t="shared" si="6"/>
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E98" s="11">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="10">
+        <f t="shared" si="6"/>
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="10">
+        <f t="shared" si="6"/>
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0</v>
+      </c>
+      <c r="F100" s="11">
+        <v>1</v>
+      </c>
+      <c r="G100" s="11">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="10">
+        <f t="shared" si="6"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="11">
+        <v>0</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="J101" s="10">
+        <f t="shared" si="6"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E102" s="11">
+        <v>0</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
+      </c>
+      <c r="G102" s="11">
+        <v>1</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="J102" s="10">
+        <f t="shared" si="6"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <v>0</v>
+      </c>
+      <c r="F103" s="11">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11">
+        <v>1</v>
+      </c>
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="J103" s="10">
+        <f t="shared" si="6"/>
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E104" s="11">
+        <v>0</v>
+      </c>
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <v>1</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="10">
+        <f t="shared" si="6"/>
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E105" s="11">
+        <v>0</v>
+      </c>
+      <c r="F105" s="11">
+        <v>0</v>
+      </c>
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11">
+        <v>1</v>
+      </c>
+      <c r="J105" s="10">
+        <f t="shared" si="6"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
+      </c>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11">
+        <v>1</v>
+      </c>
+      <c r="J106" s="10">
+        <f t="shared" si="6"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11">
+        <v>1</v>
+      </c>
+      <c r="J107" s="10">
+        <f t="shared" si="6"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E108" s="11">
+        <v>1</v>
+      </c>
+      <c r="F108" s="11">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="10">
+        <f t="shared" si="6"/>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E109" s="11">
+        <v>1</v>
+      </c>
+      <c r="F109" s="11">
+        <v>0</v>
+      </c>
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0</v>
+      </c>
+      <c r="J109" s="10">
+        <f t="shared" si="6"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E110" s="11">
+        <v>1</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="10">
+        <f t="shared" si="6"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E111" s="11">
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <v>1</v>
+      </c>
+      <c r="G111" s="11">
+        <v>0</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0</v>
+      </c>
+      <c r="J111" s="10">
+        <f t="shared" si="6"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="11">
+        <v>1</v>
+      </c>
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="10">
+        <f t="shared" si="6"/>
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
+      <c r="F113" s="11">
+        <v>1</v>
+      </c>
+      <c r="G113" s="11">
+        <v>0</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0</v>
+      </c>
+      <c r="J113" s="10">
+        <f t="shared" si="6"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0</v>
+      </c>
+      <c r="G114" s="11">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="J114" s="10">
+        <f t="shared" si="6"/>
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+      <c r="F115" s="11">
+        <v>0</v>
+      </c>
+      <c r="G115" s="11">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="10">
+        <f t="shared" si="6"/>
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+      <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <v>1</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="10">
+        <f t="shared" si="6"/>
+        <v>12.649999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+      <c r="F117" s="11">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
+        <v>1</v>
+      </c>
+      <c r="J117" s="10">
+        <f t="shared" si="6"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0</v>
+      </c>
+      <c r="F118" s="11">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11">
+        <v>0</v>
+      </c>
+      <c r="H118" s="11">
+        <v>1</v>
+      </c>
+      <c r="J118" s="10">
+        <f t="shared" si="6"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="11">
+        <v>1</v>
+      </c>
+      <c r="J119" s="10">
+        <f t="shared" si="6"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11">
+        <v>0</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="J120" s="10">
+        <f t="shared" si="6"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E121" s="11">
+        <v>1</v>
+      </c>
+      <c r="F121" s="11">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="10">
+        <f t="shared" si="6"/>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1</v>
+      </c>
+      <c r="F122" s="11">
+        <v>0</v>
+      </c>
+      <c r="G122" s="11">
+        <v>0</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0</v>
+      </c>
+      <c r="J122" s="10">
+        <f t="shared" si="6"/>
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E123" s="11">
+        <v>0</v>
+      </c>
+      <c r="F123" s="11">
+        <v>1</v>
+      </c>
+      <c r="G123" s="11">
+        <v>0</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="10">
+        <f t="shared" si="6"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+      <c r="F124" s="11">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11">
+        <v>0</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="J124" s="10">
+        <f t="shared" si="6"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="11">
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <v>1</v>
+      </c>
+      <c r="G125" s="11">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="J125" s="10">
+        <f t="shared" si="6"/>
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0</v>
+      </c>
+      <c r="F126" s="11">
+        <v>0</v>
+      </c>
+      <c r="G126" s="11">
+        <v>1</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0</v>
+      </c>
+      <c r="J126" s="10">
+        <f t="shared" si="6"/>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D47C10-682C-4D71-9B2B-779D96E8EDA4}">
+  <dimension ref="A1:I94"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.850000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>12.649999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>11.850000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>25</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>11.45</v>
+      </c>
+      <c r="H56" s="14">
+        <v>11.4499998299054</v>
+      </c>
+      <c r="I56" s="15">
+        <f>G56-H56</f>
+        <v>1.7009459973849061E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="H57" s="14">
+        <v>12.600000039840101</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" ref="I57:I79" si="0">G57-H57</f>
+        <v>-3.9840099219645708E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="H58" s="14">
+        <v>12.6999999052926</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="0"/>
+        <v>9.4707399256321878E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H59" s="14">
+        <v>9.7000001033051504</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.0330515110013039E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="H60" s="14">
+        <v>12.200000036364001</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.6364001587685379E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="H61" s="14">
+        <v>10.600000165188799</v>
+      </c>
+      <c r="I61" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.6518879952798216E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="H62" s="14">
+        <v>11.800000030111001</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.0110999915677894E-8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>25</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="10">
+        <v>13.75</v>
+      </c>
+      <c r="H63" s="14">
+        <v>13.7500000801759</v>
+      </c>
+      <c r="I63" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.0175899697110253E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>30</v>
+      </c>
+      <c r="B64" s="2">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="H64" s="14">
+        <v>15.3999998744313</v>
+      </c>
+      <c r="I64" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2556870032653933E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2">
+        <v>30</v>
+      </c>
+      <c r="C65" s="2">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>11.65</v>
+      </c>
+      <c r="H65" s="14">
+        <v>11.650000046122599</v>
+      </c>
+      <c r="I65" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.6122599073328274E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="H66" s="14">
+        <v>9.8999997560504092</v>
+      </c>
+      <c r="I66" s="15">
+        <f t="shared" si="0"/>
+        <v>2.4394959119433679E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10">
+        <v>14.15</v>
+      </c>
+      <c r="H67" s="14">
+        <v>14.1499998029919</v>
+      </c>
+      <c r="I67" s="15">
+        <f t="shared" si="0"/>
+        <v>1.970081004998292E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10">
+        <v>10.55</v>
+      </c>
+      <c r="H68" s="14">
+        <v>10.5499999131914</v>
+      </c>
+      <c r="I68" s="15">
+        <f t="shared" si="0"/>
+        <v>8.6808601196253221E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10">
+        <v>12.649999999999999</v>
+      </c>
+      <c r="H69" s="14">
+        <v>12.649999986720101</v>
+      </c>
+      <c r="I69" s="15">
+        <f t="shared" si="0"/>
+        <v>1.3279898070095442E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="H70" s="14">
+        <v>11.100000009425299</v>
+      </c>
+      <c r="I70" s="15">
+        <f t="shared" si="0"/>
+        <v>-9.4252996518662258E-9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="10">
+        <v>10.3</v>
+      </c>
+      <c r="H71" s="14">
+        <v>10.3000000838119</v>
+      </c>
+      <c r="I71" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.3811899642682874E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>23</v>
+      </c>
+      <c r="B72" s="7">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <v>8</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="H72" s="14">
+        <v>9.3999999768719196</v>
+      </c>
+      <c r="I72" s="15">
+        <f t="shared" si="0"/>
+        <v>2.312808078386297E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="10">
+        <v>12.75</v>
+      </c>
+      <c r="H73" s="14">
+        <v>12.7500001999534</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.9995339961553782E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="10">
+        <v>14.85</v>
+      </c>
+      <c r="H74" s="14">
+        <v>14.8500001862364</v>
+      </c>
+      <c r="I74" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.8623640052339852E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21</v>
+      </c>
+      <c r="C75" s="2">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="10">
+        <v>13.85</v>
+      </c>
+      <c r="H75" s="14">
+        <v>13.850000120242999</v>
+      </c>
+      <c r="I75" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.2024299955726292E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>11.25</v>
+      </c>
+      <c r="H76" s="14">
+        <v>11.249999840686099</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5931390073831153E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>30</v>
+      </c>
+      <c r="B77" s="2">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>13.9</v>
+      </c>
+      <c r="H77" s="14">
+        <v>13.8999999715708</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8429200327195758E-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>10.85</v>
+      </c>
+      <c r="H78" s="14">
+        <v>10.8500000319496</v>
+      </c>
+      <c r="I78" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.1949600298730729E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" s="2">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10">
+        <v>13.399999999999999</v>
+      </c>
+      <c r="H79" s="14">
+        <v>13.3999998393362</v>
+      </c>
+      <c r="I79" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6066379870949277E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>1.9999999348070201</v>
+      </c>
+      <c r="C84" s="12">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <f>C84-A84</f>
+        <v>6.5192979903372361E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>1.00000030629148</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85:F91" si="1">C85-A85</f>
+        <v>-3.062914799567551E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>4.9999998874921099</v>
+      </c>
+      <c r="C86" s="12">
+        <v>5</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1.1250789011540974E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>3.00000000283609</v>
+      </c>
+      <c r="C87" s="12">
+        <v>3</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>-2.8360900294899238E-9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>1.5999998357495</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.0999998357495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>1.6999999016457401</v>
+      </c>
+      <c r="C89" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.0999999016457402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>1.20000006340628</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.50000006340628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>1.5000001447831399</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.30000014478314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>5.99999994558467</v>
+      </c>
+      <c r="C94" s="12">
+        <v>7</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="13">
+        <f>C94-A94</f>
+        <v>1.00000005441533</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/prediction/PredictionData.xlsx
+++ b/prediction/PredictionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81EF069-B561-43E9-BB4E-EABF504DAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DC8E3F-0F1A-407D-A9EC-13A95F768E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="גיליון3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -133,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -697,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,13 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2804,7 +2802,7 @@
         <v>0.6</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" ref="G49:G60" si="5">$A$48*A50+$B$48*B50+$C$48*C50+$D$48*D50+$E$48</f>
+        <f t="shared" ref="G50:G60" si="5">$A$48*A50+$B$48*B50+$C$48*C50+$D$48*D50+$E$48</f>
         <v>17.833309092793826</v>
       </c>
       <c r="H50" s="1">
@@ -8128,16 +8126,16 @@
         <f>(D2-$D$81)/($D$82-$D$81)</f>
         <v>0.6</v>
       </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>1</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
         <v>0</v>
       </c>
       <c r="I88" s="1"/>
@@ -8163,16 +8161,16 @@
         <f t="shared" ref="D89:D126" si="5">(D3-$D$81)/($D$82-$D$81)</f>
         <v>1</v>
       </c>
-      <c r="E89" s="11">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>1</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="11">
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
         <v>0</v>
       </c>
       <c r="I89" s="1"/>
@@ -8198,16 +8196,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <v>1</v>
-      </c>
-      <c r="H90" s="11">
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
         <v>0</v>
       </c>
       <c r="I90" s="1"/>
@@ -8233,16 +8231,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
-        <v>1</v>
-      </c>
-      <c r="H91" s="11">
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
         <v>0</v>
       </c>
       <c r="I91" s="1"/>
@@ -8268,16 +8266,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>1</v>
-      </c>
-      <c r="H92" s="11">
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
         <v>0</v>
       </c>
       <c r="I92" s="1"/>
@@ -8303,16 +8301,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E93" s="11">
-        <v>0</v>
-      </c>
-      <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
         <v>1</v>
       </c>
       <c r="I93" s="1"/>
@@ -8338,16 +8336,16 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
         <v>1</v>
       </c>
       <c r="I94" s="1"/>
@@ -8373,16 +8371,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
         <v>1</v>
       </c>
       <c r="I95" s="1"/>
@@ -8408,16 +8406,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E96" s="11">
-        <v>1</v>
-      </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
         <v>0</v>
       </c>
       <c r="I96" s="1"/>
@@ -8443,16 +8441,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E97" s="11">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
         <v>0</v>
       </c>
       <c r="I97" s="1"/>
@@ -8478,16 +8476,16 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E98" s="11">
-        <v>1</v>
-      </c>
-      <c r="F98" s="11">
-        <v>0</v>
-      </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
         <v>0</v>
       </c>
       <c r="I98" s="1"/>
@@ -8513,16 +8511,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E99" s="11">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1</v>
-      </c>
-      <c r="G99" s="11">
-        <v>0</v>
-      </c>
-      <c r="H99" s="11">
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
         <v>0</v>
       </c>
       <c r="I99" s="1"/>
@@ -8548,16 +8546,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E100" s="11">
-        <v>0</v>
-      </c>
-      <c r="F100" s="11">
-        <v>1</v>
-      </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11">
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
         <v>0</v>
       </c>
       <c r="J100" s="10">
@@ -8582,16 +8580,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E101" s="11">
-        <v>0</v>
-      </c>
-      <c r="F101" s="11">
-        <v>1</v>
-      </c>
-      <c r="G101" s="11">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
         <v>0</v>
       </c>
       <c r="J101" s="10">
@@ -8616,16 +8614,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E102" s="11">
-        <v>0</v>
-      </c>
-      <c r="F102" s="11">
-        <v>0</v>
-      </c>
-      <c r="G102" s="11">
-        <v>1</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="J102" s="10">
@@ -8650,16 +8648,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E103" s="11">
-        <v>0</v>
-      </c>
-      <c r="F103" s="11">
-        <v>0</v>
-      </c>
-      <c r="G103" s="11">
-        <v>1</v>
-      </c>
-      <c r="H103" s="11">
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
         <v>0</v>
       </c>
       <c r="J103" s="10">
@@ -8684,16 +8682,16 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E104" s="11">
-        <v>0</v>
-      </c>
-      <c r="F104" s="11">
-        <v>0</v>
-      </c>
-      <c r="G104" s="11">
-        <v>1</v>
-      </c>
-      <c r="H104" s="11">
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
         <v>0</v>
       </c>
       <c r="J104" s="10">
@@ -8718,16 +8716,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E105" s="11">
-        <v>0</v>
-      </c>
-      <c r="F105" s="11">
-        <v>0</v>
-      </c>
-      <c r="G105" s="11">
-        <v>0</v>
-      </c>
-      <c r="H105" s="11">
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
         <v>1</v>
       </c>
       <c r="J105" s="10">
@@ -8752,16 +8750,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E106" s="11">
-        <v>0</v>
-      </c>
-      <c r="F106" s="11">
-        <v>0</v>
-      </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
         <v>1</v>
       </c>
       <c r="J106" s="10">
@@ -8786,16 +8784,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E107" s="11">
-        <v>0</v>
-      </c>
-      <c r="F107" s="11">
-        <v>0</v>
-      </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11">
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
         <v>1</v>
       </c>
       <c r="J107" s="10">
@@ -8820,16 +8818,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E108" s="11">
-        <v>1</v>
-      </c>
-      <c r="F108" s="11">
-        <v>0</v>
-      </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
         <v>0</v>
       </c>
       <c r="J108" s="10">
@@ -8854,16 +8852,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E109" s="11">
-        <v>1</v>
-      </c>
-      <c r="F109" s="11">
-        <v>0</v>
-      </c>
-      <c r="G109" s="11">
-        <v>0</v>
-      </c>
-      <c r="H109" s="11">
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
         <v>0</v>
       </c>
       <c r="J109" s="10">
@@ -8888,16 +8886,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E110" s="11">
-        <v>1</v>
-      </c>
-      <c r="F110" s="11">
-        <v>0</v>
-      </c>
-      <c r="G110" s="11">
-        <v>0</v>
-      </c>
-      <c r="H110" s="11">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
         <v>0</v>
       </c>
       <c r="J110" s="10">
@@ -8922,16 +8920,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E111" s="11">
-        <v>0</v>
-      </c>
-      <c r="F111" s="11">
-        <v>1</v>
-      </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="11">
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="10">
@@ -8956,16 +8954,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E112" s="11">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11">
-        <v>1</v>
-      </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
-      <c r="H112" s="11">
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
         <v>0</v>
       </c>
       <c r="J112" s="10">
@@ -8990,16 +8988,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E113" s="11">
-        <v>0</v>
-      </c>
-      <c r="F113" s="11">
-        <v>1</v>
-      </c>
-      <c r="G113" s="11">
-        <v>0</v>
-      </c>
-      <c r="H113" s="11">
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
         <v>0</v>
       </c>
       <c r="J113" s="10">
@@ -9024,16 +9022,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E114" s="11">
-        <v>0</v>
-      </c>
-      <c r="F114" s="11">
-        <v>0</v>
-      </c>
-      <c r="G114" s="11">
-        <v>1</v>
-      </c>
-      <c r="H114" s="11">
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
         <v>0</v>
       </c>
       <c r="J114" s="10">
@@ -9058,16 +9056,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E115" s="11">
-        <v>0</v>
-      </c>
-      <c r="F115" s="11">
-        <v>0</v>
-      </c>
-      <c r="G115" s="11">
-        <v>1</v>
-      </c>
-      <c r="H115" s="11">
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
         <v>0</v>
       </c>
       <c r="J115" s="10">
@@ -9092,16 +9090,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E116" s="11">
-        <v>0</v>
-      </c>
-      <c r="F116" s="11">
-        <v>0</v>
-      </c>
-      <c r="G116" s="11">
-        <v>1</v>
-      </c>
-      <c r="H116" s="11">
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
         <v>0</v>
       </c>
       <c r="J116" s="10">
@@ -9126,16 +9124,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E117" s="11">
-        <v>0</v>
-      </c>
-      <c r="F117" s="11">
-        <v>0</v>
-      </c>
-      <c r="G117" s="11">
-        <v>0</v>
-      </c>
-      <c r="H117" s="11">
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="10">
@@ -9160,16 +9158,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E118" s="11">
-        <v>0</v>
-      </c>
-      <c r="F118" s="11">
-        <v>0</v>
-      </c>
-      <c r="G118" s="11">
-        <v>0</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
         <v>1</v>
       </c>
       <c r="J118" s="10">
@@ -9194,16 +9192,16 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E119" s="11">
-        <v>0</v>
-      </c>
-      <c r="F119" s="11">
-        <v>0</v>
-      </c>
-      <c r="G119" s="11">
-        <v>0</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
         <v>1</v>
       </c>
       <c r="J119" s="10">
@@ -9228,16 +9226,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E120" s="11">
-        <v>1</v>
-      </c>
-      <c r="F120" s="11">
-        <v>0</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
-      <c r="H120" s="11">
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
         <v>0</v>
       </c>
       <c r="J120" s="10">
@@ -9262,16 +9260,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E121" s="11">
-        <v>1</v>
-      </c>
-      <c r="F121" s="11">
-        <v>0</v>
-      </c>
-      <c r="G121" s="11">
-        <v>0</v>
-      </c>
-      <c r="H121" s="11">
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
         <v>0</v>
       </c>
       <c r="J121" s="10">
@@ -9296,16 +9294,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E122" s="11">
-        <v>1</v>
-      </c>
-      <c r="F122" s="11">
-        <v>0</v>
-      </c>
-      <c r="G122" s="11">
-        <v>0</v>
-      </c>
-      <c r="H122" s="11">
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
         <v>0</v>
       </c>
       <c r="J122" s="10">
@@ -9330,16 +9328,16 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="E123" s="11">
-        <v>0</v>
-      </c>
-      <c r="F123" s="11">
-        <v>1</v>
-      </c>
-      <c r="G123" s="11">
-        <v>0</v>
-      </c>
-      <c r="H123" s="11">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
         <v>0</v>
       </c>
       <c r="J123" s="10">
@@ -9364,16 +9362,16 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E124" s="11">
-        <v>0</v>
-      </c>
-      <c r="F124" s="11">
-        <v>1</v>
-      </c>
-      <c r="G124" s="11">
-        <v>0</v>
-      </c>
-      <c r="H124" s="11">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
         <v>0</v>
       </c>
       <c r="J124" s="10">
@@ -9398,16 +9396,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E125" s="11">
-        <v>0</v>
-      </c>
-      <c r="F125" s="11">
-        <v>1</v>
-      </c>
-      <c r="G125" s="11">
-        <v>0</v>
-      </c>
-      <c r="H125" s="11">
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
         <v>0</v>
       </c>
       <c r="J125" s="10">
@@ -9432,16 +9430,16 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="E126" s="11">
-        <v>0</v>
-      </c>
-      <c r="F126" s="11">
-        <v>0</v>
-      </c>
-      <c r="G126" s="11">
-        <v>1</v>
-      </c>
-      <c r="H126" s="11">
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
         <v>0</v>
       </c>
       <c r="J126" s="10">
@@ -10768,10 +10766,10 @@
       <c r="G56" s="10">
         <v>11.45</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>11.4499998299054</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <f>G56-H56</f>
         <v>1.7009459973849061E-7</v>
       </c>
@@ -10798,10 +10796,10 @@
       <c r="G57" s="10">
         <v>12.600000000000001</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>12.600000039840101</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <f t="shared" ref="I57:I79" si="0">G57-H57</f>
         <v>-3.9840099219645708E-8</v>
       </c>
@@ -10828,10 +10826,10 @@
       <c r="G58" s="10">
         <v>12.7</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>12.6999999052926</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="14">
         <f t="shared" si="0"/>
         <v>9.4707399256321878E-8</v>
       </c>
@@ -10858,10 +10856,10 @@
       <c r="G59" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>9.7000001033051504</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="14">
         <f t="shared" si="0"/>
         <v>-1.0330515110013039E-7</v>
       </c>
@@ -10888,10 +10886,10 @@
       <c r="G60" s="10">
         <v>12.2</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>12.200000036364001</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="14">
         <f t="shared" si="0"/>
         <v>-3.6364001587685379E-8</v>
       </c>
@@ -10918,10 +10916,10 @@
       <c r="G61" s="10">
         <v>10.6</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>10.600000165188799</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <f t="shared" si="0"/>
         <v>-1.6518879952798216E-7</v>
       </c>
@@ -10948,10 +10946,10 @@
       <c r="G62" s="10">
         <v>11.8</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>11.800000030111001</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <f t="shared" si="0"/>
         <v>-3.0110999915677894E-8</v>
       </c>
@@ -10978,10 +10976,10 @@
       <c r="G63" s="10">
         <v>13.75</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>13.7500000801759</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <f t="shared" si="0"/>
         <v>-8.0175899697110253E-8</v>
       </c>
@@ -11008,10 +11006,10 @@
       <c r="G64" s="10">
         <v>15.4</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>15.3999998744313</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="14">
         <f t="shared" si="0"/>
         <v>1.2556870032653933E-7</v>
       </c>
@@ -11038,10 +11036,10 @@
       <c r="G65" s="10">
         <v>11.65</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>11.650000046122599</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="14">
         <f t="shared" si="0"/>
         <v>-4.6122599073328274E-8</v>
       </c>
@@ -11068,10 +11066,10 @@
       <c r="G66" s="10">
         <v>9.9</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>9.8999997560504092</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="14">
         <f t="shared" si="0"/>
         <v>2.4394959119433679E-7</v>
       </c>
@@ -11098,10 +11096,10 @@
       <c r="G67" s="10">
         <v>14.15</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>14.1499998029919</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="14">
         <f t="shared" si="0"/>
         <v>1.970081004998292E-7</v>
       </c>
@@ -11128,10 +11126,10 @@
       <c r="G68" s="10">
         <v>10.55</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>10.5499999131914</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="14">
         <f t="shared" si="0"/>
         <v>8.6808601196253221E-8</v>
       </c>
@@ -11158,10 +11156,10 @@
       <c r="G69" s="10">
         <v>12.649999999999999</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>12.649999986720101</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="14">
         <f t="shared" si="0"/>
         <v>1.3279898070095442E-8</v>
       </c>
@@ -11188,10 +11186,10 @@
       <c r="G70" s="10">
         <v>11.1</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>11.100000009425299</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="14">
         <f t="shared" si="0"/>
         <v>-9.4252996518662258E-9</v>
       </c>
@@ -11218,10 +11216,10 @@
       <c r="G71" s="10">
         <v>10.3</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>10.3000000838119</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="14">
         <f t="shared" si="0"/>
         <v>-8.3811899642682874E-8</v>
       </c>
@@ -11248,10 +11246,10 @@
       <c r="G72" s="10">
         <v>9.4</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>9.3999999768719196</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="14">
         <f t="shared" si="0"/>
         <v>2.312808078386297E-8</v>
       </c>
@@ -11278,10 +11276,10 @@
       <c r="G73" s="10">
         <v>12.75</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>12.7500001999534</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="14">
         <f t="shared" si="0"/>
         <v>-1.9995339961553782E-7</v>
       </c>
@@ -11308,10 +11306,10 @@
       <c r="G74" s="10">
         <v>14.85</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>14.8500001862364</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="14">
         <f t="shared" si="0"/>
         <v>-1.8623640052339852E-7</v>
       </c>
@@ -11338,10 +11336,10 @@
       <c r="G75" s="10">
         <v>13.85</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <v>13.850000120242999</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="14">
         <f t="shared" si="0"/>
         <v>-1.2024299955726292E-7</v>
       </c>
@@ -11368,10 +11366,10 @@
       <c r="G76" s="10">
         <v>11.25</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>11.249999840686099</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="14">
         <f t="shared" si="0"/>
         <v>1.5931390073831153E-7</v>
       </c>
@@ -11398,10 +11396,10 @@
       <c r="G77" s="10">
         <v>13.9</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>13.8999999715708</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="14">
         <f t="shared" si="0"/>
         <v>2.8429200327195758E-8</v>
       </c>
@@ -11428,10 +11426,10 @@
       <c r="G78" s="10">
         <v>10.85</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>10.8500000319496</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="14">
         <f t="shared" si="0"/>
         <v>-3.1949600298730729E-8</v>
       </c>
@@ -11458,10 +11456,10 @@
       <c r="G79" s="10">
         <v>13.399999999999999</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>13.3999998393362</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="14">
         <f t="shared" si="0"/>
         <v>1.6066379870949277E-7</v>
       </c>
@@ -11475,10 +11473,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <v>1.9999999348070201</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="11">
         <v>2</v>
       </c>
       <c r="D84" s="9" t="s">
@@ -11490,10 +11488,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="12">
+      <c r="A85" s="11">
         <v>1.00000030629148</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>1</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -11505,10 +11503,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <v>4.9999998874921099</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <v>5</v>
       </c>
       <c r="D86" s="9" t="s">
@@ -11520,10 +11518,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <v>3.00000000283609</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="11">
         <v>3</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -11535,61 +11533,61 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <v>1.5999998357495</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>0.5</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="12">
         <f t="shared" si="1"/>
         <v>-1.0999998357495</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="12">
+      <c r="A89" s="11">
         <v>1.6999999016457401</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="11">
         <v>0.6</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="12">
         <f t="shared" si="1"/>
         <v>-1.0999999016457402</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <v>1.20000006340628</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <v>0.7</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="12">
         <f t="shared" si="1"/>
         <v>-0.50000006340628</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <v>1.5000001447831399</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>0.2</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="12">
         <f t="shared" si="1"/>
         <v>-1.30000014478314</v>
       </c>
@@ -11603,16 +11601,16 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <v>5.99999994558467</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="11">
         <v>7</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="12">
         <f>C94-A94</f>
         <v>1.00000005441533</v>
       </c>
